--- a/datos_softplus_prop.xlsx
+++ b/datos_softplus_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,6 +751,194 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03195891380310058</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0002066135406494141</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>55.91189465083403</v>
+      </c>
+      <c r="H10" t="n">
+        <v>134.8782395376743</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03175482749938965</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.000208282470703125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0002038478851318359</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>51.21988110221734</v>
+      </c>
+      <c r="H11" t="n">
+        <v>135.1134566108093</v>
+      </c>
+      <c r="I11" t="n">
+        <v>265.9194995403349</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03194847106933594</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0002077102661132813</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0002031803131103516</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0002041816711425781</v>
+      </c>
+      <c r="G12" t="n">
+        <v>49.04720848834931</v>
+      </c>
+      <c r="H12" t="n">
+        <v>127.4014673530169</v>
+      </c>
+      <c r="I12" t="n">
+        <v>274.4042365715298</v>
+      </c>
+      <c r="J12" t="n">
+        <v>392.9065042931496</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03166098594665527</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0002020597457885742</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>55.91189465083403</v>
+      </c>
+      <c r="H13" t="n">
+        <v>134.8782395376743</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01662297248840332</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.000206446647644043</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>90.16382300921705</v>
+      </c>
+      <c r="H14" t="n">
+        <v>169.6828042070617</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_softplus_prop.xlsx
+++ b/datos_softplus_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +939,222 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01737990379333496</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0002130508422851563</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>90.16382300921705</v>
+      </c>
+      <c r="H15" t="n">
+        <v>169.6828042070617</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01770944595336914</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0002149105072021484</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0002070903778076172</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>82.59745664305755</v>
+      </c>
+      <c r="H16" t="n">
+        <v>166.7897970545312</v>
+      </c>
+      <c r="I16" t="n">
+        <v>296.9781067991819</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01770915985107422</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0002166748046875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0002106189727783203</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0002068281173706055</v>
+      </c>
+      <c r="G17" t="n">
+        <v>79.09379306239862</v>
+      </c>
+      <c r="H17" t="n">
+        <v>155.6834056741658</v>
+      </c>
+      <c r="I17" t="n">
+        <v>296.3226834054231</v>
+      </c>
+      <c r="J17" t="n">
+        <v>427.9682084694079</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01779308319091797</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0004093647003173828</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>73.03650071708307</v>
+      </c>
+      <c r="H18" t="n">
+        <v>175.6050875001727</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01775250434875488</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0004082679748535156</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0004031419754028321</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>67.12461552333134</v>
+      </c>
+      <c r="H19" t="n">
+        <v>155.7910990062484</v>
+      </c>
+      <c r="I19" t="n">
+        <v>357.3678829864218</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01764121055603027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0004074811935424804</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0004005670547485351</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0004017591476440429</v>
+      </c>
+      <c r="G20" t="n">
+        <v>66.79735091899974</v>
+      </c>
+      <c r="H20" t="n">
+        <v>140.569204338926</v>
+      </c>
+      <c r="I20" t="n">
+        <v>320.5145167534889</v>
+      </c>
+      <c r="J20" t="n">
+        <v>653.7400600265657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_softplus_prop.xlsx
+++ b/datos_softplus_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.03168971538543701</v>
+        <v>0.01690707206726074</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0003931999206542969</v>
+        <v>0.0002069234848022461</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>168.7688917322573</v>
+        <v>90.16382300921705</v>
       </c>
       <c r="H1" t="n">
-        <v>525.6522559790932</v>
+        <v>169.6828042070617</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -466,16 +466,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03170881271362305</v>
+        <v>0.01724643707275391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003892183303833008</v>
+        <v>0.0002101898193359375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003889560699462891</v>
+        <v>0.0002012014389038086</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>163.7141364523983</v>
+        <v>82.59745664305755</v>
       </c>
       <c r="H2" t="n">
-        <v>374.5343872123214</v>
+        <v>166.7897970545312</v>
       </c>
       <c r="I2" t="n">
-        <v>826.4286811534903</v>
+        <v>296.9781067991819</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -502,33 +502,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03157188892364502</v>
+        <v>0.0169774055480957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003902435302734375</v>
+        <v>0.000211334228515625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003903150558471679</v>
+        <v>0.0002026081085205078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004256725311279297</v>
+        <v>0.0002019882202148438</v>
       </c>
       <c r="G3" t="n">
-        <v>154.152442094092</v>
+        <v>79.09379306239862</v>
       </c>
       <c r="H3" t="n">
-        <v>425.490728470013</v>
+        <v>155.6834056741658</v>
       </c>
       <c r="I3" t="n">
-        <v>939.4055435596938</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>296.3226834054231</v>
+      </c>
+      <c r="J3" t="n">
+        <v>427.9682084694079</v>
       </c>
     </row>
     <row r="4">
@@ -536,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03159146308898926</v>
+        <v>0.0169285774230957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009573698043823242</v>
+        <v>0.0003902912139892578</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,10 +553,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>154.8071274140753</v>
+        <v>73.03650071708307</v>
       </c>
       <c r="H4" t="n">
-        <v>994.1964193622398</v>
+        <v>175.6050875001727</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -576,16 +574,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03169981002807618</v>
+        <v>0.01706187725067139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009608745574951171</v>
+        <v>0.0003948688507080078</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0009590387344360352</v>
+        <v>0.0003900289535522461</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -593,13 +591,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>131.4267427630803</v>
+        <v>67.12461552333134</v>
       </c>
       <c r="H5" t="n">
-        <v>494.8560628251213</v>
+        <v>155.7910990062484</v>
       </c>
       <c r="I5" t="n">
-        <v>2503.603264905458</v>
+        <v>357.3678829864218</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -612,546 +610,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03177145957946777</v>
+        <v>0.01711616516113281</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009507560729980469</v>
+        <v>0.0003923892974853516</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009542083740234374</v>
+        <v>0.0003853321075439453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001102232933044434</v>
+        <v>0.0003870248794555664</v>
       </c>
       <c r="G6" t="n">
-        <v>122.7376702881425</v>
+        <v>66.79735091899974</v>
       </c>
       <c r="H6" t="n">
-        <v>454.0577327593681</v>
+        <v>140.569204338926</v>
       </c>
       <c r="I6" t="n">
-        <v>1567.843285235935</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03158592700958252</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.00188446044921875</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>131.4241510475834</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1274.11190968094</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03144225120544433</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.00187385082244873</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.001876664161682129</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>103.8540304606731</v>
-      </c>
-      <c r="H8" t="n">
-        <v>527.5793018822646</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4055.568597529157</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03184099674224854</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.001888642311096191</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.00187410831451416</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.002161908149719238</v>
-      </c>
-      <c r="G9" t="n">
-        <v>94.16471897987401</v>
-      </c>
-      <c r="H9" t="n">
-        <v>379.1080197814506</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1884.92576594956</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03195891380310058</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0002066135406494141</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>55.91189465083403</v>
-      </c>
-      <c r="H10" t="n">
-        <v>134.8782395376743</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03175482749938965</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.000208282470703125</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0002038478851318359</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>51.21988110221734</v>
-      </c>
-      <c r="H11" t="n">
-        <v>135.1134566108093</v>
-      </c>
-      <c r="I11" t="n">
-        <v>265.9194995403349</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03194847106933594</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0002077102661132813</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0002031803131103516</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0002041816711425781</v>
-      </c>
-      <c r="G12" t="n">
-        <v>49.04720848834931</v>
-      </c>
-      <c r="H12" t="n">
-        <v>127.4014673530169</v>
-      </c>
-      <c r="I12" t="n">
-        <v>274.4042365715298</v>
-      </c>
-      <c r="J12" t="n">
-        <v>392.9065042931496</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03166098594665527</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0002020597457885742</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>55.91189465083403</v>
-      </c>
-      <c r="H13" t="n">
-        <v>134.8782395376743</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.01662297248840332</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.000206446647644043</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>90.16382300921705</v>
-      </c>
-      <c r="H14" t="n">
-        <v>169.6828042070617</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.01737990379333496</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0002130508422851563</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>90.16382300921705</v>
-      </c>
-      <c r="H15" t="n">
-        <v>169.6828042070617</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01770944595336914</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0002149105072021484</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0002070903778076172</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>82.59745664305755</v>
-      </c>
-      <c r="H16" t="n">
-        <v>166.7897970545312</v>
-      </c>
-      <c r="I16" t="n">
-        <v>296.9781067991819</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01770915985107422</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0002166748046875</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0002106189727783203</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002068281173706055</v>
-      </c>
-      <c r="G17" t="n">
-        <v>79.09379306239862</v>
-      </c>
-      <c r="H17" t="n">
-        <v>155.6834056741658</v>
-      </c>
-      <c r="I17" t="n">
-        <v>296.3226834054231</v>
-      </c>
-      <c r="J17" t="n">
-        <v>427.9682084694079</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01779308319091797</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0004093647003173828</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>73.03650071708307</v>
-      </c>
-      <c r="H18" t="n">
-        <v>175.6050875001727</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01775250434875488</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0004082679748535156</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0004031419754028321</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>67.12461552333134</v>
-      </c>
-      <c r="H19" t="n">
-        <v>155.7910990062484</v>
-      </c>
-      <c r="I19" t="n">
-        <v>357.3678829864218</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01764121055603027</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0004074811935424804</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0004005670547485351</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0004017591476440429</v>
-      </c>
-      <c r="G20" t="n">
-        <v>66.79735091899974</v>
-      </c>
-      <c r="H20" t="n">
-        <v>140.569204338926</v>
-      </c>
-      <c r="I20" t="n">
         <v>320.5145167534889</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J6" t="n">
         <v>653.7400600265657</v>
       </c>
     </row>
